--- a/1. Prijedlog projekta/Studija izvedivosti.xlsx
+++ b/1. Prijedlog projekta/Studija izvedivosti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Ivan\Faks\PIS\PIS\1. Prijedlog projekta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Ivan\Faks\PIS\pis-git\1. Prijedlog projekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496F26D6-944C-405B-A773-E612B597BB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A75C76-4C0A-4DD0-967C-3BCB8B7956F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18165" windowHeight="20145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analiza izvedivosti" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Baza smještajnih jedinica</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Višejezična podrška</t>
-  </si>
-  <si>
-    <t>Nadogradnja</t>
   </si>
   <si>
     <t>Izrada vlastitog</t>
@@ -235,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -514,21 +511,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -760,44 +742,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,9 +781,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -834,7 +804,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -861,79 +899,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1216,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,411 +1208,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="10">
+        <v>3.25</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="G10" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="6">
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="C13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9">
-        <v>3</v>
-      </c>
-      <c r="D7" s="10">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8">
-        <v>3</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="13">
-        <v>3.25</v>
-      </c>
-      <c r="D11" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2</v>
-      </c>
-      <c r="G14" s="6">
-        <v>2</v>
-      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1.75</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1.75</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="G16" s="13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="17"/>
+      <c r="A15" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1648,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B61464B-FDE9-4F7B-BAFB-0CEDCD46F31B}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
@@ -1663,221 +1518,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="64" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="B4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="C4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="42" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="B5" s="29">
+        <v>150</v>
+      </c>
+      <c r="C5" s="30">
+        <v>20</v>
+      </c>
+      <c r="D5" s="31">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B6" s="33">
         <v>150</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C6" s="34">
+        <v>25</v>
+      </c>
+      <c r="D6" s="31">
+        <v>3750</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="36">
+        <v>120</v>
+      </c>
+      <c r="C7" s="37">
         <v>20</v>
       </c>
-      <c r="D5" s="46">
-        <v>3000</v>
-      </c>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="48">
-        <v>150</v>
-      </c>
-      <c r="C6" s="49">
-        <v>25</v>
-      </c>
-      <c r="D6" s="46">
-        <v>3750</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="51">
-        <v>120</v>
-      </c>
-      <c r="C7" s="52">
-        <v>20</v>
-      </c>
-      <c r="D7" s="46">
+      <c r="D7" s="31">
         <v>2400</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7">
         <f>D5+D6+D7</f>
         <v>9150</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="B11" s="39">
+        <v>1</v>
+      </c>
+      <c r="C11" s="40">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="43">
+        <v>3000</v>
+      </c>
+      <c r="E11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="C15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="D15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="31">
+        <v>5000</v>
+      </c>
+      <c r="E16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="54">
-        <v>1</v>
-      </c>
-      <c r="C11" s="55">
-        <v>3000</v>
-      </c>
-      <c r="D11" s="58">
-        <v>3000</v>
-      </c>
-      <c r="E11" s="35">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="44">
-        <v>1</v>
-      </c>
-      <c r="C16" s="45">
-        <v>5000</v>
-      </c>
-      <c r="D16" s="46">
-        <v>5000</v>
-      </c>
-      <c r="E16" s="35">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="59">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="44">
         <f>E7+E11+E16</f>
         <v>17150</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/1. Prijedlog projekta/Studija izvedivosti.xlsx
+++ b/1. Prijedlog projekta/Studija izvedivosti.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Ivan\Faks\PIS\pis-git\1. Prijedlog projekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A75C76-4C0A-4DD0-967C-3BCB8B7956F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA14CAE4-80F2-4619-B186-07177F87ACEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analiza izvedivosti" sheetId="1" r:id="rId1"/>
     <sheet name="Analiza troškova" sheetId="2" r:id="rId2"/>
+    <sheet name="Studija izvedivosti" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Baza smještajnih jedinica</t>
   </si>
@@ -138,13 +139,76 @@
   </si>
   <si>
     <t>Održavanje sustava</t>
+  </si>
+  <si>
+    <t>Ključna karakteristika</t>
+  </si>
+  <si>
+    <t>Ponder (%)</t>
+  </si>
+  <si>
+    <t>Izrada vlastitog (ocjena)</t>
+  </si>
+  <si>
+    <t>Izrada vlastitog (ponderirana ocjena)</t>
+  </si>
+  <si>
+    <t>Nabava gotovog (ocjena)</t>
+  </si>
+  <si>
+    <t>Nabava gotovog (ponderirana ocjena)</t>
+  </si>
+  <si>
+    <t>Korisničko sučelje</t>
+  </si>
+  <si>
+    <t>Sigurnost sustava</t>
+  </si>
+  <si>
+    <t>Upravljanje korisničkim računima</t>
+  </si>
+  <si>
+    <t>Pretraživanje i filtriranje smještaja</t>
+  </si>
+  <si>
+    <t>Rezervacijski sustav</t>
+  </si>
+  <si>
+    <t>Praćenje rezervacija i povijest</t>
+  </si>
+  <si>
+    <t>Integracija s vanjskim API-ima</t>
+  </si>
+  <si>
+    <t>Mobilna aplikacija</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,05</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>0,35</t>
+  </si>
+  <si>
+    <t>6,95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +287,12 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -742,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -907,6 +977,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1505,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B61464B-FDE9-4F7B-BAFB-0CEDCD46F31B}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1723,4 +1808,224 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2E31A8-73B4-4E52-B964-00E95A740D80}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="62">
+        <v>20</v>
+      </c>
+      <c r="C2" s="62">
+        <v>9</v>
+      </c>
+      <c r="D2" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="E2" s="62">
+        <v>7</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="62">
+        <v>15</v>
+      </c>
+      <c r="C3" s="62">
+        <v>8</v>
+      </c>
+      <c r="D3" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="E3" s="62">
+        <v>7</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="62">
+        <v>10</v>
+      </c>
+      <c r="C4" s="62">
+        <v>7</v>
+      </c>
+      <c r="D4" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="E4" s="62">
+        <v>6</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="62">
+        <v>15</v>
+      </c>
+      <c r="C5" s="62">
+        <v>8</v>
+      </c>
+      <c r="D5" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="62">
+        <v>7</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="62">
+        <v>15</v>
+      </c>
+      <c r="C6" s="62">
+        <v>9</v>
+      </c>
+      <c r="D6" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="E6" s="62">
+        <v>7</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="62">
+        <v>10</v>
+      </c>
+      <c r="C7" s="62">
+        <v>8</v>
+      </c>
+      <c r="D7" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="E7" s="62">
+        <v>7</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="62">
+        <v>10</v>
+      </c>
+      <c r="C8" s="62">
+        <v>7</v>
+      </c>
+      <c r="D8" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="E8" s="62">
+        <v>8</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="62">
+        <v>5</v>
+      </c>
+      <c r="C9" s="62">
+        <v>9</v>
+      </c>
+      <c r="D9" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="E9" s="62">
+        <v>7</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="63">
+        <v>100</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="64">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>